--- a/BudgetTracking/PriceTracking.xlsx
+++ b/BudgetTracking/PriceTracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\Documents\GitHub\BudgetTracking\BudgetTracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8147BD5-23B2-441B-A491-AA3E3738BB75}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203139E2-67D6-4FA2-8986-6B68E29FAA7F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" xr2:uid="{DD899780-0EE6-4157-B5A7-1DAC5F271BC4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" tabRatio="601" xr2:uid="{DD899780-0EE6-4157-B5A7-1DAC5F271BC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>April</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>Necklace</t>
+  </si>
+  <si>
+    <t>Money Information</t>
+  </si>
+  <si>
+    <t>Current Total</t>
+  </si>
+  <si>
+    <t>Current Paycheck</t>
   </si>
 </sst>
 </file>
@@ -262,33 +271,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -309,6 +300,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -316,24 +328,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="42">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -387,6 +381,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -394,15 +397,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -412,7 +406,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.39997558519241921"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -479,6 +473,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -486,15 +489,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -504,7 +498,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -571,6 +565,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -578,15 +581,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -596,7 +590,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.39997558519241921"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -663,6 +657,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -670,15 +673,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -688,7 +682,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -755,6 +749,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -762,15 +765,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -780,7 +774,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.39997558519241921"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -847,6 +841,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -854,15 +857,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -872,7 +866,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -939,6 +933,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -946,18 +949,27 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1058,6 +1070,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1219-44C5-A289-AD5F16FA519F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1073,6 +1090,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1219-44C5-A289-AD5F16FA519F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1088,6 +1110,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1219-44C5-A289-AD5F16FA519F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1103,6 +1130,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1219-44C5-A289-AD5F16FA519F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1118,6 +1150,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-1219-44C5-A289-AD5F16FA519F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1133,6 +1170,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-1219-44C5-A289-AD5F16FA519F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1148,6 +1190,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-1219-44C5-A289-AD5F16FA519F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1404,6 +1451,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2EAE-497E-A15F-D1CBB51BE306}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1419,6 +1471,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2EAE-497E-A15F-D1CBB51BE306}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1434,6 +1491,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2EAE-497E-A15F-D1CBB51BE306}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1449,6 +1511,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2EAE-497E-A15F-D1CBB51BE306}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1464,6 +1531,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-2EAE-497E-A15F-D1CBB51BE306}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1479,6 +1551,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-2EAE-497E-A15F-D1CBB51BE306}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1496,6 +1573,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-2EAE-497E-A15F-D1CBB51BE306}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2868,98 +2950,98 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{45F721EC-A022-4E92-AD03-6E586E3CF975}" name="Table4" displayName="Table4" ref="A3:B50" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="40" tableBorderDxfId="41" totalsRowBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{45F721EC-A022-4E92-AD03-6E586E3CF975}" name="Table4" displayName="Table4" ref="A3:B50" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="40" tableBorderDxfId="39" totalsRowBorderDxfId="38">
   <autoFilter ref="A3:B50" xr:uid="{EF82343F-DDB8-43FF-A528-318CFEC56A00}"/>
   <sortState ref="A4:B50">
     <sortCondition descending="1" ref="A4:A50"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A3F188FE-12B3-4972-9A75-5872F2E36814}" name="Price" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{295FEB97-D271-40F5-B060-52010996920F}" name="Name" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{A3F188FE-12B3-4972-9A75-5872F2E36814}" name="Price" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{295FEB97-D271-40F5-B060-52010996920F}" name="Name" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{90E23610-F672-4B96-8598-8D2CA745FF81}" name="Table5" displayName="Table5" ref="D3:E50" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="34" tableBorderDxfId="35" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{90E23610-F672-4B96-8598-8D2CA745FF81}" name="Table5" displayName="Table5" ref="D3:E50" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
   <autoFilter ref="D3:E50" xr:uid="{AF32B70D-9F63-4304-AB90-D38FB44146D0}"/>
   <sortState ref="D4:E50">
     <sortCondition descending="1" ref="D4:D50"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6DE1CD03-B300-4B64-8091-279220842BA6}" name="Price" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{ADD32B37-C68A-446F-90A0-A6B2D7B304EB}" name="Name" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{6DE1CD03-B300-4B64-8091-279220842BA6}" name="Price" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{ADD32B37-C68A-446F-90A0-A6B2D7B304EB}" name="Name" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C4904604-0981-4542-88D4-C0C5F715BD85}" name="Table6" displayName="Table6" ref="G3:H50" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="28" tableBorderDxfId="29" totalsRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C4904604-0981-4542-88D4-C0C5F715BD85}" name="Table6" displayName="Table6" ref="G3:H50" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <autoFilter ref="G3:H50" xr:uid="{A30CDAC6-9822-4EFB-A2E9-731E493D0AEC}"/>
   <sortState ref="G4:H50">
     <sortCondition descending="1" ref="G4:G50"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D4ABD96C-E626-49CD-B1F9-BAC1F8F0CC8A}" name="Price" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{3F2F81C4-E329-48BA-8EAE-41593724BE75}" name="Name" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{D4ABD96C-E626-49CD-B1F9-BAC1F8F0CC8A}" name="Price" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{3F2F81C4-E329-48BA-8EAE-41593724BE75}" name="Name" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AD65F5F3-B5FF-424B-9D55-F0C00EBF675A}" name="Table7" displayName="Table7" ref="J3:K50" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="22" tableBorderDxfId="23" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AD65F5F3-B5FF-424B-9D55-F0C00EBF675A}" name="Table7" displayName="Table7" ref="J3:K50" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <autoFilter ref="J3:K50" xr:uid="{52938D32-AAF8-429A-8320-6BB272F08B49}"/>
   <sortState ref="J4:K50">
     <sortCondition descending="1" ref="J4:J50"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B99BC002-EE4C-4260-B28A-DA6928C5D9C4}" name="Price" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{C3170814-FF30-45F6-9393-61D4B7EFD4A0}" name="Name" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{B99BC002-EE4C-4260-B28A-DA6928C5D9C4}" name="Price" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{C3170814-FF30-45F6-9393-61D4B7EFD4A0}" name="Name" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BB233FAA-8388-489F-B886-C873F491BA2B}" name="Table8" displayName="Table8" ref="M3:N50" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BB233FAA-8388-489F-B886-C873F491BA2B}" name="Table8" displayName="Table8" ref="M3:N50" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="M3:N50" xr:uid="{3A03B167-29F5-4DFE-88C8-F62938C7407A}"/>
   <sortState ref="M4:N50">
     <sortCondition descending="1" ref="M4:M50"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{508367C1-D5A1-4048-BFB7-113AE4D28C26}" name="Price" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{6629F1E7-DB86-4E9B-848B-0671E9DCEC4C}" name="Name" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{508367C1-D5A1-4048-BFB7-113AE4D28C26}" name="Price" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{6629F1E7-DB86-4E9B-848B-0671E9DCEC4C}" name="Name" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{155D822C-6269-4A3B-B366-A5DDE2D6C283}" name="Table9" displayName="Table9" ref="P3:Q50" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{155D822C-6269-4A3B-B366-A5DDE2D6C283}" name="Table9" displayName="Table9" ref="P3:Q50" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="P3:Q50" xr:uid="{87EDFDBC-4A85-4D6E-A911-6E64D1180E3E}"/>
   <sortState ref="P4:Q50">
     <sortCondition descending="1" ref="P4:P50"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8ACFFF90-634F-4F4A-BD62-92F93380CC56}" name="Price" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{FCFBB75F-1654-41EF-B1C9-974CD0EB331E}" name="Name" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{8ACFFF90-634F-4F4A-BD62-92F93380CC56}" name="Price" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{FCFBB75F-1654-41EF-B1C9-974CD0EB331E}" name="Name" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{11C2DA30-05F7-4782-9E4F-70D83C5E1D65}" name="Table11" displayName="Table11" ref="S3:T50" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{11C2DA30-05F7-4782-9E4F-70D83C5E1D65}" name="Table11" displayName="Table11" ref="S3:T50" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="S3:T50" xr:uid="{A19E64F6-5D0C-4FC3-B841-3401581F6B56}"/>
   <sortState ref="S4:T50">
     <sortCondition descending="1" ref="S4:S50"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BBFAE4DB-0D0A-4AD5-8179-7ADB4C730159}" name="Price" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{7AC73140-5EF5-4252-98CF-61061F0388FF}" name="Name" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{BBFAE4DB-0D0A-4AD5-8179-7ADB4C730159}" name="Price" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{7AC73140-5EF5-4252-98CF-61061F0388FF}" name="Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3275,8 +3357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA583D2-A411-48AA-942A-099A72335182}">
   <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView tabSelected="1" topLeftCell="R7" workbookViewId="0">
+      <selection activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3295,33 +3377,34 @@
     <col min="17" max="17" width="11" style="2" customWidth="1"/>
     <col min="19" max="19" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.85546875" style="2" customWidth="1"/>
-    <col min="22" max="23" width="11" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" customWidth="1"/>
     <col min="26" max="26" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
       <c r="V1" t="s">
         <v>15</v>
       </c>
@@ -3336,40 +3419,40 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="24"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="5"/>
+      <c r="N2" s="24"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="5"/>
+      <c r="Q2" s="24"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="5"/>
+      <c r="T2" s="24"/>
       <c r="V2" s="3">
         <f>SUM(A4:A50)</f>
         <v>21</v>
@@ -3387,51 +3470,51 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="19" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="2"/>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="O3" s="2"/>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="19" t="s">
         <v>14</v>
       </c>
       <c r="R3" s="2"/>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="V3">
@@ -3451,51 +3534,51 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="6">
         <v>13</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="14">
         <v>20</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="13">
+      <c r="G4" s="7">
         <v>50</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="20">
+      <c r="J4" s="14">
         <v>0</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="16" t="s">
         <v>18</v>
       </c>
       <c r="L4" s="2"/>
-      <c r="M4" s="13">
+      <c r="M4" s="7">
         <v>40</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="9" t="s">
         <v>20</v>
       </c>
       <c r="O4" s="2"/>
-      <c r="P4" s="20">
+      <c r="P4" s="14">
         <v>0</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="16" t="s">
         <v>19</v>
       </c>
       <c r="R4" s="2"/>
-      <c r="S4" s="13">
+      <c r="S4" s="7">
         <v>32</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="V4">
@@ -3515,51 +3598,51 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="7">
         <v>8</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="15">
         <v>18</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="12">
+      <c r="G5" s="6">
         <v>20</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="21">
+      <c r="J5" s="15">
         <v>0</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="12">
+      <c r="M5" s="6">
         <v>10</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="O5" s="2"/>
-      <c r="P5" s="21">
+      <c r="P5" s="15">
         <v>0</v>
       </c>
-      <c r="Q5" s="23" t="s">
+      <c r="Q5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="R5" s="2"/>
-      <c r="S5" s="12">
+      <c r="S5" s="6">
         <v>16</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="T5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="V5">
@@ -3579,25 +3662,25 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="14"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="22"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="22"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="16"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="14"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="8"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="22"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="16"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="14"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="8"/>
       <c r="V6">
         <f>SUM(M4:M50)</f>
         <v>50</v>
@@ -3615,25 +3698,25 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="15"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="23"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="9"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="15"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="23"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="15"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="9"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="23"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="17"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="15"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="9"/>
       <c r="V7">
         <f>SUM(P4:P50)</f>
         <v>0</v>
@@ -3651,25 +3734,25 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="22"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="14"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="22"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="14"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="8"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="22"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="16"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="14"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="8"/>
       <c r="V8">
         <f>SUM(S4:S50)</f>
         <v>48</v>
@@ -3687,951 +3770,961 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="15"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="23"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="9"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="15"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="23"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="15"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="9"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="23"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="17"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="15"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="9"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="22"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="14"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="22"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="16"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="14"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="8"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="22"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="16"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="14"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="8"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="15"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="23"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="9"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="15"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="23"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="17"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="15"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="9"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="23"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="17"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="15"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="9"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="10" t="s">
+      <c r="V11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="W11" s="11"/>
+      <c r="W11" s="29"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="14"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="22"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="14"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="22"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="16"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="14"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="8"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="22"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="16"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="14"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="8"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="8">
+      <c r="V12" s="4">
         <v>48</v>
       </c>
-      <c r="W12" s="9" t="str">
+      <c r="W12" s="5" t="str">
         <f>VLOOKUP(V12,Table3[#All],2,FALSE)</f>
         <v>Car</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="23"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="9"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="15"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="23"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="15"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="9"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="23"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="17"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="15"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="9"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="14"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="22"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="14"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="22"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="16"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="14"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="8"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="22"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="16"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="14"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="8"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="4" t="s">
+      <c r="V14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="W14" s="7"/>
+      <c r="W14" s="27"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="15"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="23"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="9"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="15"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="23"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="17"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="15"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="9"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="23"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="17"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="15"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="9"/>
       <c r="U15" s="2"/>
-      <c r="V15" s="28">
+      <c r="V15" s="22">
         <f>MAX(V12:W14,A4,D4,G4,J4,M4,P4,S4)</f>
         <v>50</v>
       </c>
-      <c r="W15" s="29" t="str">
+      <c r="W15" s="23" t="str">
         <f>VLOOKUP(V15,Table12[#All],2,FALSE)</f>
         <v>Groceries</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="14"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="22"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="14"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="22"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="16"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="14"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="8"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="22"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="16"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="14"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="8"/>
       <c r="U16" s="2"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="15"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="9"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="15"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="23"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="17"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="15"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="9"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="23"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="17"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="15"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="9"/>
       <c r="U17" s="2"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="14"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="22"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="14"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="22"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="16"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="14"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="8"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="22"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="16"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="14"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="8"/>
       <c r="U18" s="2"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="15"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="23"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="9"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="15"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="23"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="17"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="15"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="9"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="23"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="17"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="15"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="9"/>
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="14"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="22"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="14"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="22"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="16"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="14"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="8"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="22"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="16"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="14"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="8"/>
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="15"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="9"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="15"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="23"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="17"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="15"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="9"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="23"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="17"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="15"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="9"/>
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="14"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="22"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="14"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="8"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="22"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="16"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="14"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="8"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="22"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="16"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="14"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="8"/>
       <c r="U22" s="2"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="15"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="23"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="9"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="15"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="23"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="17"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="15"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="9"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="23"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="17"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="15"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="9"/>
       <c r="U23" s="2"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="14"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="22"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="14"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="22"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="16"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="14"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="8"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="22"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="16"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="14"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="8"/>
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="15"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="23"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="9"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="15"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="23"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="17"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="15"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="9"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="23"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="17"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="15"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="9"/>
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="14"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="22"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="8"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="14"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="8"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="22"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="16"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="14"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="8"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="22"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="16"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="14"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="8"/>
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="23"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="9"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="15"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="23"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="17"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="15"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="9"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="23"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="17"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="15"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="9"/>
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="14"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="22"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="8"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="14"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="8"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="22"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="16"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="14"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="8"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="22"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="16"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="14"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="8"/>
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="15"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="23"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="9"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="15"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="23"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="17"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="15"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="9"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="23"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="17"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="15"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="9"/>
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="14"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="22"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="8"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="14"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="8"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="22"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="16"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="14"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="8"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="22"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="16"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="14"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="8"/>
       <c r="U30" s="2"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="15"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="23"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="9"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="15"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="23"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="17"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="15"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="9"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="23"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="17"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="15"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="9"/>
       <c r="U31" s="2"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="14"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="22"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="8"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="14"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="8"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="22"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="16"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="14"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="8"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="22"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="16"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="14"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="8"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="15"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="23"/>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="9"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="15"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="23"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="17"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="15"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="9"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="23"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="17"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="15"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="9"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="14"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="22"/>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="8"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="14"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="8"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="22"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="16"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="14"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="8"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="22"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="16"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="14"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="8"/>
       <c r="U34" s="2"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="15"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="23"/>
+      <c r="V34" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="W34" s="30"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="9"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="15"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="9"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="23"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="17"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="15"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="9"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="23"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="17"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="15"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="9"/>
       <c r="U35" s="2"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="14"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="22"/>
+      <c r="V35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="8"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="14"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="8"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="22"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="16"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="14"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="8"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="22"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="16"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="14"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="8"/>
       <c r="U36" s="2"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="15"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="23"/>
+      <c r="V36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="9"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="17"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="15"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="9"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="23"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="17"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="15"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="9"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="23"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="17"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="15"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="9"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="14"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="22"/>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="8"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="16"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="14"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="8"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="22"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="16"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="14"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="8"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="22"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="16"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="14"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="8"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="15"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="23"/>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="9"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="17"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="15"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="9"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="23"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="17"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="15"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="9"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="23"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="17"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="15"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="9"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="14"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="22"/>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="8"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="16"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="14"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="8"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="22"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="16"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="14"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="8"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="22"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="16"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="14"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="8"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="23"/>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="9"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="15"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="9"/>
       <c r="I41" s="2"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="23"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="17"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="15"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="9"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="23"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="17"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="15"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="9"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="14"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="22"/>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="8"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="16"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="14"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="8"/>
       <c r="I42" s="2"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="22"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="16"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="14"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="8"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="22"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="16"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="14"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="8"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="15"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="23"/>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="9"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="17"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="15"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="9"/>
       <c r="I43" s="2"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="23"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="17"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="15"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="9"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="23"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="17"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="15"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="9"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="14"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="22"/>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="8"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="16"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="14"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="8"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="22"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="16"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="14"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="8"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="22"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="16"/>
       <c r="R44" s="2"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="14"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="8"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="15"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="23"/>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="9"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="17"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="15"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="9"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="23"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="17"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="15"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="9"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="23"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="17"/>
       <c r="R45" s="2"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="15"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="9"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="14"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="22"/>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="8"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="16"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="14"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="8"/>
       <c r="I46" s="2"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="22"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="16"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="14"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="8"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="22"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="16"/>
       <c r="R46" s="2"/>
-      <c r="S46" s="12"/>
-      <c r="T46" s="14"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="8"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="15"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="23"/>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="9"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="17"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="15"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="9"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="23"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="17"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="15"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="9"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="23"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="17"/>
       <c r="R47" s="2"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="15"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="9"/>
       <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="14"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="22"/>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="8"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="16"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="14"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="8"/>
       <c r="I48" s="2"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="22"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="16"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="14"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="8"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="22"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="16"/>
       <c r="R48" s="2"/>
-      <c r="S48" s="12"/>
-      <c r="T48" s="14"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="8"/>
       <c r="U48" s="2"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="15"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="23"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="9"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="17"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="15"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="9"/>
       <c r="I49" s="2"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="23"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="17"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="15"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="9"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="23"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="17"/>
       <c r="R49" s="2"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="15"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="9"/>
       <c r="U49" s="2"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="27"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="19"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="27"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="19"/>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="27"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="19"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="21"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="13"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="21"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="13"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="21"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="13"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -4685,7 +4778,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="V34:W34"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="V14:W14"/>
